--- a/data/sheet/2022/Schedule_Plus_2022W08_2022-02-21_2022-02-27.xlsx
+++ b/data/sheet/2022/Schedule_Plus_2022W08_2022-02-21_2022-02-27.xlsx
@@ -513,11 +513,11 @@
         <v>44619</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44619.00694444445</v>
+        <v>44619.00744212963</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:10:43</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -550,14 +550,14 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44619.00694444445</v>
+        <v>44619.00753472222</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44619.02361111111</v>
+        <v>44619.02236111111</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:24:00</t>
+          <t>00:21:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -590,14 +590,14 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44619.02361111111</v>
+        <v>44619.02246527778</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44619.04166666666</v>
+        <v>44619.03913194445</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:24:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -629,11 +629,11 @@
         <v>44619.04166666666</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44619.04513888889</v>
+        <v>44619.04572916667</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:51</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -666,14 +666,14 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44619.04513888889</v>
+        <v>44619.04582175926</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44619.0625</v>
+        <v>44619.06244212963</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -705,11 +705,11 @@
         <v>44619.0625</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44619.06458333333</v>
+        <v>44619.06511574074</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:46</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -742,14 +742,14 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44619.06458333333</v>
+        <v>44619.06520833333</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44619.08333333334</v>
+        <v>44619.08287037037</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:26</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -781,11 +781,11 @@
         <v>44619.08333333334</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44619.08680555555</v>
+        <v>44619.08759259259</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:06:08</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -818,14 +818,14 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44619.08680555555</v>
+        <v>44619.08767361111</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44619.10416666666</v>
+        <v>44619.10412037037</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:41</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -861,11 +861,11 @@
         <v>44619.10416666666</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44619.10625</v>
+        <v>44619.10686342593</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:53</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -898,14 +898,14 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44619.10625</v>
+        <v>44619.10695601852</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44619.125</v>
+        <v>44619.12393518518</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:24:27</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -937,11 +937,11 @@
         <v>44619.125</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44619.12847222222</v>
+        <v>44619.12918981481</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:06:02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -974,14 +974,14 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44619.12847222222</v>
+        <v>44619.12927083333</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44619.14583333334</v>
+        <v>44619.14578703704</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:47</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1013,11 +1013,11 @@
         <v>44619.14583333334</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44619.14791666667</v>
+        <v>44619.14844907408</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:46</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1050,14 +1050,14 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44619.14791666667</v>
+        <v>44619.14854166667</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44619.16666666666</v>
+        <v>44619.16638888889</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:42</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1089,11 +1089,11 @@
         <v>44619.16666666666</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44619.17013888889</v>
+        <v>44619.17069444444</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:48</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1126,14 +1126,14 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44619.17013888889</v>
+        <v>44619.17078703704</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44619.1875</v>
+        <v>44619.1874537037</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:24:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1169,11 +1169,11 @@
         <v>44619.1875</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44619.18958333333</v>
+        <v>44619.19003472223</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:39</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1206,14 +1206,14 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44619.18958333333</v>
+        <v>44619.19011574074</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44619.20833333334</v>
+        <v>44619.20795138889</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:41</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1249,11 +1249,11 @@
         <v>44619.20833333334</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44619.21180555555</v>
+        <v>44619.21256944445</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:06:06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1286,14 +1286,14 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44619.21180555555</v>
+        <v>44619.21265046296</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44619.23125</v>
+        <v>44619.22925925926</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>00:28:00</t>
+          <t>00:23:55</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1326,14 +1326,14 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44619.23125</v>
+        <v>44619.22936342593</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44619.25</v>
+        <v>44619.2463425926</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:24:27</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1726,14 +1726,14 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44619.42152777778</v>
+        <v>44619.42101851852</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44619.4375</v>
+        <v>44619.43767361111</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>00:23:00</t>
+          <t>00:23:59</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1802,14 +1802,14 @@
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44619.43958333333</v>
+        <v>44619.44033564815</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44619.45833333334</v>
+        <v>44619.45829861111</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:52</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -1882,14 +1882,14 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44619.46319444444</v>
+        <v>44619.46268518519</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44619.5</v>
+        <v>44619.49994212963</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>00:53:39</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2046,14 +2046,14 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44619.54513888889</v>
+        <v>44619.54648148148</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44619.5625</v>
+        <v>44619.56215277778</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:22:34</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -2122,14 +2122,14 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44619.56527777778</v>
+        <v>44619.56509259259</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44619.58333333334</v>
+        <v>44619.5828125</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:25:31</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2202,14 +2202,14 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44619.58680555555</v>
+        <v>44619.58751157407</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44619.60416666666</v>
+        <v>44619.60378472223</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:26</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -2278,14 +2278,14 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44619.60694444444</v>
+        <v>44619.60672453704</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44619.625</v>
+        <v>44619.62422453704</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:25:12</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2321,11 +2321,11 @@
         <v>44619.625</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44619.62986111111</v>
+        <v>44619.62886574074</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>00:07:00</t>
+          <t>00:05:34</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2358,14 +2358,14 @@
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44619.62986111111</v>
+        <v>44619.62886574074</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>44619.66666666666</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>00:54:26</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -2437,11 +2437,11 @@
         <v>44619.66666666666</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44619.67152777778</v>
+        <v>44619.67050925926</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>00:07:00</t>
+          <t>00:05:32</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -2474,14 +2474,14 @@
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44619.67152777778</v>
+        <v>44619.67050925926</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>44619.70833333334</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>00:54:28</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -2666,14 +2666,14 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44619.73194444444</v>
+        <v>44619.73136574074</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44619.75</v>
+        <v>44619.74958333333</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:26:14</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -2742,14 +2742,14 @@
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44619.75694444445</v>
+        <v>44619.75765046296</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44619.78472222222</v>
+        <v>44619.7850462963</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>00:40:00</t>
+          <t>00:39:27</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -2782,14 +2782,14 @@
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44619.78472222222</v>
+        <v>44619.7850462963</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44619.79166666666</v>
+        <v>44619.79129629629</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:09:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -2858,14 +2858,14 @@
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44619.79652777778</v>
+        <v>44619.79579861111</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44619.8125</v>
+        <v>44619.81146990741</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>00:23:00</t>
+          <t>00:22:34</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -2934,14 +2934,14 @@
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44619.81458333333</v>
+        <v>44619.81490740741</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44619.83333333334</v>
+        <v>44619.8315162037</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:23:55</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3014,14 +3014,14 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44619.83680555555</v>
+        <v>44619.83732638889</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44619.85416666666</v>
+        <v>44619.85403935185</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:24:04</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -3090,14 +3090,14 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44619.85662037037</v>
+        <v>44619.85671296297</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44619.875</v>
+        <v>44619.8749537037</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>00:26:28</t>
+          <t>00:26:16</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -3166,14 +3166,14 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44619.87847222222</v>
+        <v>44619.87898148148</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44619.89583333334</v>
+        <v>44619.89563657407</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:59</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3242,14 +3242,14 @@
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44619.8981712963</v>
+        <v>44619.89825231482</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44619.91666666666</v>
+        <v>44619.91618055556</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>00:26:38</t>
+          <t>00:25:49</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -3318,14 +3318,14 @@
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44619.92013888889</v>
+        <v>44619.920625</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44619.9375</v>
+        <v>44619.93716435185</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:49</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -3358,14 +3358,14 @@
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44619.93958333333</v>
+        <v>44619.93875</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44619.95833333334</v>
+        <v>44619.9569675926</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:26:14</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -3434,14 +3434,14 @@
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44619.96111111111</v>
+        <v>44619.96230324074</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44619.97916666666</v>
+        <v>44619.98002314815</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:25:31</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -3474,14 +3474,14 @@
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44619.98125</v>
+        <v>44619.98013888889</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44620</v>
+        <v>44619.9968287037</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:24:02</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
